--- a/Bugs.xlsx
+++ b/Bugs.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efd3a88db1269771/Documents/qa-job-fair/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_7FC6823BFA42C9C642678C0F55F17ADA668F8BE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2CD186B-71B5-46FE-A94E-6E71CCE9EFE2}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Bug</t>
   </si>
@@ -20,23 +29,142 @@
   </si>
   <si>
     <t>Fix</t>
+  </si>
+  <si>
+    <t>Non-random order of cards</t>
+  </si>
+  <si>
+    <t>Take damage</t>
+  </si>
+  <si>
+    <t>Method Player.takeDamage(int amountOfDamage) assigns amountOfDamage value to health variable, instead of decreasing it</t>
+  </si>
+  <si>
+    <t>health is decreased by amountOfDamage</t>
+  </si>
+  <si>
+    <t>Draw card from an empty deck</t>
+  </si>
+  <si>
+    <t>Player.drawCard() method doesn't check if the deck array is empty before attempting to get an element from it</t>
+  </si>
+  <si>
+    <t>Insert check if the array is empty in Player.drawCard() method</t>
+  </si>
+  <si>
+    <t>Collections.shuffle(this.deck);</t>
+  </si>
+  <si>
+    <t>Method Player.shuffleDeck() always creates a deck with cards in identical order because function was empty</t>
+  </si>
+  <si>
+    <t>Reset damage</t>
+  </si>
+  <si>
+    <t>Method Player.ResetDamage() doesn't set damage to 0. Damage stays the same</t>
+  </si>
+  <si>
+    <t>damage=0</t>
+  </si>
+  <si>
+    <t>Exception when player wants to play card he doesn't have in hand</t>
+  </si>
+  <si>
+    <t>Method BoostAttackCard.getBoost() returns number (index of the card) instead of boost number</t>
+  </si>
+  <si>
+    <t>replace number with boost (return boost)</t>
+  </si>
+  <si>
+    <t>BoostAttackCard boosts by 2 instead of 3</t>
+  </si>
+  <si>
+    <t>Game continues after player's health drops below 0</t>
+  </si>
+  <si>
+    <t>return player.getHealth() &gt; 0</t>
+  </si>
+  <si>
+    <t>Change true to false and vice versa in method .Player.findNumberInHand(int number)</t>
+  </si>
+  <si>
+    <t>Opponent can not be attacked with the same card which special ability is used for deflecting the attack</t>
+  </si>
+  <si>
+    <t>add hand.remove(cardToPlay); after foreach loop in method Player.playCardInDefense(int cardNumber)</t>
+  </si>
+  <si>
+    <t>After using special ability of the Attack card, player is attacking</t>
+  </si>
+  <si>
+    <t>When player uses Attack card for protection, attack should not be triggered. In method Player.playCardInDefense(int cardNumber), attackingStatus=true</t>
+  </si>
+  <si>
+    <t>Change attackingStatus to false</t>
+  </si>
+  <si>
+    <t>Exception happens in method Player.playCard(int cardNumber) when player tries to use card he doesn't have in hand</t>
+  </si>
+  <si>
+    <t>Surround with try-catch block, set message to notify the player and let player change his choise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Game.hasHealth(Player player) returns Player.getHealth() != 0 so game stops only if player's health is 0, but it should also stop after player health is &lt;0 </t>
+  </si>
+  <si>
+    <t>Player's turn doesn't end after using Attack card</t>
+  </si>
+  <si>
+    <t>Player's turn doesn't end if player plays AttackCard, in method Game.playTurn(Player currentPlayer, Player opponentPlayer) turn ends only if player types 'end' or if he has no cards in hand left. If player's turn doesn't end on Attack card, it means he can play more than one Attack card in one turn and that is incorrect</t>
+  </si>
+  <si>
+    <t>if(isHandEmpty(currentPlayer) || currentPlayer.getAttackingStatus()){
+                        break;
+                    }</t>
+  </si>
+  <si>
+    <t>Player can attack with Boost card</t>
+  </si>
+  <si>
+    <t>Boost card can only be used for attack if player uses Attack card afterwards</t>
+  </si>
+  <si>
+    <t>in method Player.playCard(int cardNumber) when used card is Boost card, attackingStatus must be false, only Attack card can change attackingStatus to true</t>
+  </si>
+  <si>
+    <t>Player can't protect with special ability of Attack card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method Game.getPlayersDistinctInput(int opponentDamage, Player currentPlayer) can't recognize that player has used Attack card in his hand (with index eqaul to attack damage of opponent) that he can use to protect himself because method Player.findNumberInHand(int number) is returning false instead of true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After using the special ability of Attack card, it doesn't vanishes so it can be used again </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -44,7 +172,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -54,35 +182,51 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -272,39 +416,174 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.25"/>
-    <col customWidth="1" min="2" max="2" width="36.13"/>
-    <col customWidth="1" min="3" max="3" width="41.63"/>
+    <col min="1" max="1" width="36.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>